--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3762048.664754254</v>
+        <v>3866219.996442629</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498522</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7398029.271423503</v>
+        <v>7379316.997211381</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.74571998351959</v>
+        <v>146.4556620416975</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>132.9184145500498</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>119.8622228667813</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>370.0648965483579</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>297.0374827789873</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.9537619207626</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>190.39359751214</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>119.5542949307295</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>150.1031320206882</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>8.615556827241903</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>33.4831007742745</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444129</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881311</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.5133592021556</v>
+        <v>181.1911789297529</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8253826161909023</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>176.8175509096639</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1895,10 +1897,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>87.73390848162661</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2290,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>172.6684446854161</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>16.92025364381849</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>261.3661834507352</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.1478176131513</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>132.6164309267676</v>
+        <v>184.1864835478238</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898978</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065883</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261728</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545296</v>
+        <v>0.6324680438218387</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308917</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002293</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541843</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652599</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921807753</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096051</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352487</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972046</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317885</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445515</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969976</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600553</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808248</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>60.1982794515033</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972042</v>
+        <v>72.2376664596877</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>28.75188085812044</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808248</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>53.68707741621073</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695513</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2.268486125805158</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8253826161947853</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005.586939522201</v>
+        <v>1101.143993102105</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>732.1814761616938</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.57251526313</v>
+        <v>1249.079005265436</v>
       </c>
       <c r="Y2" t="n">
-        <v>2029.57251526313</v>
+        <v>1249.079005265436</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686077</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080122</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986296</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>846.306131908167</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.6774975139006</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.608663915319</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>1735.608663915319</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W4" t="n">
-        <v>1446.191493878358</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X4" t="n">
-        <v>1325.11854148767</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="Y4" t="n">
-        <v>1104.32596234414</v>
+        <v>354.4439942939401</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943748</v>
+        <v>1198.574246756696</v>
       </c>
       <c r="C5" t="n">
-        <v>1308.370295943748</v>
+        <v>1198.574246756696</v>
       </c>
       <c r="D5" t="n">
-        <v>1308.370295943748</v>
+        <v>840.3085481499459</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>840.3085481499459</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>429.3226433603383</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>417.6582971250313</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1585.174086820818</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>958.3822695744182</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845646</v>
+        <v>668.9650995374575</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>440.9755486394401</v>
       </c>
       <c r="Y7" t="n">
-        <v>1155.203338947628</v>
+        <v>220.18296949591</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1619.798686923957</v>
+        <v>2038.144201386633</v>
       </c>
       <c r="C8" t="n">
-        <v>1250.836169983545</v>
+        <v>1669.181684446222</v>
       </c>
       <c r="D8" t="n">
-        <v>892.5704713767946</v>
+        <v>1310.915985839471</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4817,37 +4819,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3063.695827862844</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>2732.632940519273</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2379.864285249158</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="X8" t="n">
-        <v>2006.398526988078</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="Y8" t="n">
-        <v>2006.398526988078</v>
+        <v>2424.744041450755</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4905,16 +4907,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4926,7 +4928,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>567.2993462682277</v>
+        <v>783.4669865852871</v>
       </c>
       <c r="C10" t="n">
-        <v>398.3631633403209</v>
+        <v>783.4669865852871</v>
       </c>
       <c r="D10" t="n">
-        <v>248.2465239279851</v>
+        <v>633.3503471729514</v>
       </c>
       <c r="E10" t="n">
-        <v>100.333430345592</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>100.333430345592</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>100.333430345592</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1548.361223971665</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.157560278958</v>
+        <v>1293.676735765778</v>
       </c>
       <c r="W10" t="n">
-        <v>969.7403902419976</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X10" t="n">
-        <v>969.7403902419976</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="Y10" t="n">
-        <v>748.9478110984675</v>
+        <v>783.4669865852871</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191927</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349518</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>923.0670414349518</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
         <v>779.6143379232838</v>
@@ -5194,55 +5196,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474262</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>94.65038286230612</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>94.65038286230612</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2018.458958710129</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1729.383732054327</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1474.69924384844</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5543,7 +5545,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5589,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>559.0424953278208</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
@@ -5938,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2022.649975098258</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1733.574748442456</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1478.890260236569</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1189.473090199608</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>961.4835393015907</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y22" t="n">
-        <v>740.6909601580605</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6069,19 +6071,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2965.647484649469</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C25" t="n">
-        <v>2796.711301721562</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D25" t="n">
-        <v>2646.594662309226</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E25" t="n">
-        <v>2646.594662309226</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4140.179737764103</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3885.495249558217</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>3596.078079521256</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>3368.088528623239</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y25" t="n">
-        <v>3147.295949479709</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="26">
@@ -6215,13 +6217,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6230,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6312,13 +6314,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>615.644930552589</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6427,7 +6429,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>849.3843576263199</v>
+        <v>797.2933953828287</v>
       </c>
     </row>
     <row r="29">
@@ -6452,37 +6454,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6546,22 +6548,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319336</v>
+        <v>951.3929232910542</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656827</v>
+        <v>782.4567403631473</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150031</v>
+        <v>632.3401009508116</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580119</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384022</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954148</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380726</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311319</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656413</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382517</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973195</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717213</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931276</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547837</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532434</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838288</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594057</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6782,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1150.52355647915</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,13 +6937,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,10 +6970,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852888</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1904.493740652238</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1649.809252446351</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1360.39208240939</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7153,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150027</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942658</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384023</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2392.733712452775</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2209.878878107679</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1990.277413130621</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1701.202186474818</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1701.202186474818</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1411.785016437858</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,16 +7675,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852888</v>
@@ -7691,7 +7693,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7727,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.274259167293</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876722</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597655</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474299</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="E46" t="n">
-        <v>261.8464821474299</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>261.8464821474299</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>94.65038286231004</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602306</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396419</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359459</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614416</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179117</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8061,10 +8063,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>255.842170046095</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,19 +8291,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>54.95314511566579</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23416,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>67.07129414993923</v>
+        <v>37.39347442234185</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>80.44045370237463</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>40.58789941762436</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>60.88156453658574</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>44.7370056418722</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>208.7894017452187</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,22 +24414,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>24.81829093850899</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>0.5618377758858912</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.96822242532721</v>
+        <v>34.39816980427096</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>145.8014946027473</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>165.5113759375338</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>213.9468079295564</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>119.8635921600919</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>12.68816929391095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.433962646569</v>
+        <v>144.165476520764</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>139.4693302300289</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>644846.5871549922</v>
+        <v>653165.2856564913</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>644846.5871549922</v>
+        <v>653165.2856564913</v>
       </c>
     </row>
     <row r="4">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634077.8302699272</v>
+        <v>634077.8302699273</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>644846.5871549922</v>
+        <v>634077.8302699273</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>644846.5871549922</v>
+        <v>634077.8302699273</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>644846.5871549922</v>
+        <v>634077.8302699272</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>644846.5871549922</v>
+        <v>634077.8302699272</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>644846.5871549922</v>
+        <v>634077.8302699272</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>634077.8302699273</v>
+        <v>634077.8302699272</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176766</v>
+      </c>
+      <c r="C2" t="n">
+        <v>800515.7256176765</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176758</v>
-      </c>
-      <c r="C2" t="n">
-        <v>800515.7256176757</v>
-      </c>
-      <c r="D2" t="n">
-        <v>800515.7256176757</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="H2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977554</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="I2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>800515.725617677</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.725617677</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176756</v>
-      </c>
       <c r="N2" t="n">
-        <v>800515.7256176771</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176772</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403383</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363164</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819067</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.23512810789</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>88524.23512810786</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810779</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>17328.05961985001</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>17328.05961985005</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>17328.05961985005</v>
+        <v>9337.200356756632</v>
       </c>
       <c r="N4" t="n">
-        <v>17328.05961985005</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>17328.05961985005</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756748</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-724687.195799418</v>
+        <v>-543900.1040901903</v>
       </c>
       <c r="C6" t="n">
-        <v>604057.5499281746</v>
+        <v>570851.6794857293</v>
       </c>
       <c r="D6" t="n">
-        <v>604057.5499281747</v>
+        <v>411430.4094878364</v>
       </c>
       <c r="E6" t="n">
-        <v>351095.742709737</v>
+        <v>351095.7427097364</v>
       </c>
       <c r="F6" t="n">
-        <v>676508.2045170926</v>
+        <v>676508.204517093</v>
       </c>
       <c r="G6" t="n">
         <v>676508.2045170921</v>
       </c>
       <c r="H6" t="n">
-        <v>676508.2045170923</v>
+        <v>676508.2045170924</v>
       </c>
       <c r="I6" t="n">
-        <v>676508.2045170924</v>
+        <v>676508.2045170922</v>
       </c>
       <c r="J6" t="n">
-        <v>458977.0021198146</v>
+        <v>508903.0267071091</v>
       </c>
       <c r="K6" t="n">
-        <v>660595.83215028</v>
+        <v>676508.2045170917</v>
       </c>
       <c r="L6" t="n">
-        <v>680023.5501439115</v>
+        <v>628214.2345089014</v>
       </c>
       <c r="M6" t="n">
-        <v>594968.5222083984</v>
+        <v>591453.1765815802</v>
       </c>
       <c r="N6" t="n">
-        <v>680023.5501439117</v>
+        <v>676508.2045170917</v>
       </c>
       <c r="O6" t="n">
-        <v>680023.5501439117</v>
+        <v>676508.2045170926</v>
       </c>
       <c r="P6" t="n">
-        <v>676508.2045170917</v>
+        <v>676508.2045170921</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26712,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26932,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757594</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>358.988121679961</v>
+        <v>236.2781796217831</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>46.91356563188748</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>105.8474325222558</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>11.86547352390392</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>3.981069783418036</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>116.8782182611747</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>61.74404581168804</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>262.3760751415323</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>100.8920399382138</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>137.8184058193273</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>111.2719141400463</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>302.967544750805</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>556.7959610899848</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,34 +32074,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>451.7125911569009</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32230,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32309,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>288.8958573929172</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32476,7 +32478,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175675</v>
@@ -32549,19 +32551,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>297.1808238847177</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,7 +32572,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32719,7 +32721,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
         <v>926.5868626460027</v>
@@ -32789,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32804,7 +32806,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33032,16 +33034,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>604.245822599193</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33266,34 +33268,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>338.130958502898</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33500,16 +33502,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,10 +33520,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>197.6412480909884</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33760,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>518.4394551593577</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,16 +34210,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>393.3904345522228</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,10 +34231,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,13 +34447,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34463,7 +34465,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>553.5225306839452</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>421.8844773977062</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>160.8335108287866</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>425.4542490066514</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35644,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>313.1582113770268</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>157.5541453095838</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36124,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36136,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,7 +36220,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36367,7 +36369,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36437,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36452,7 +36454,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36916,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>206.7892464195647</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549929</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016745</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>418.626661811171</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930847</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>445.910780481947</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.546547198085</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986645</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919379</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,10 +37168,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37408,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>376.3054212373394</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>254.8360547723487</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,10 +37879,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,7 +38113,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3862124.354937863</v>
+        <v>3863884.885240649</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283174</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7379316.997211381</v>
+        <v>7379316.997211382</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>83.51326306792794</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>3.466648435661559</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>171.1971464172153</v>
+        <v>122.9101334136726</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>249.8766522325166</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>196.6997841156786</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>50.9807481254283</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>147.636432596079</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>204.6785882200678</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444162</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656051</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>100.7362831624792</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856543</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101216</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>39.56681219551508</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187827</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428379</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101216</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812365</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788183532</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428553</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576187</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>32.27552175740353</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>168.4805514670954</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634831</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018866</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.07327741456142</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>40.15381658332813</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1644.250531453059</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="C2" t="n">
-        <v>1275.288014512648</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="D2" t="n">
-        <v>917.0223159058974</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="E2" t="n">
-        <v>917.0223159058974</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="F2" t="n">
-        <v>506.0364111162898</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4363,19 +4363,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2225.392814445924</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1894.329927102353</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1541.561271832239</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>1168.095513571159</v>
       </c>
       <c r="Y2" t="n">
-        <v>1644.250531453059</v>
+        <v>777.9561815953475</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>143.6627691908469</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143497</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1758.982323005929</v>
+        <v>938.9442613508772</v>
       </c>
       <c r="C4" t="n">
-        <v>1590.046140078022</v>
+        <v>770.0080784229704</v>
       </c>
       <c r="D4" t="n">
-        <v>1439.929500665686</v>
+        <v>619.8914390106346</v>
       </c>
       <c r="E4" t="n">
-        <v>1292.016407083293</v>
+        <v>471.9783454282415</v>
       </c>
       <c r="F4" t="n">
-        <v>1145.126459585383</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936612</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936612</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2389.412917877716</v>
+        <v>1409.711063677279</v>
       </c>
       <c r="T4" t="n">
-        <v>2389.412917877716</v>
+        <v>1409.711063677279</v>
       </c>
       <c r="U4" t="n">
-        <v>2389.412917877716</v>
+        <v>1120.592726181117</v>
       </c>
       <c r="V4" t="n">
-        <v>2389.412917877716</v>
+        <v>1120.592726181117</v>
       </c>
       <c r="W4" t="n">
-        <v>2389.412917877716</v>
+        <v>1120.592726181117</v>
       </c>
       <c r="X4" t="n">
-        <v>2161.423366979699</v>
+        <v>1120.592726181117</v>
       </c>
       <c r="Y4" t="n">
-        <v>1940.630787836168</v>
+        <v>1120.592726181117</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1059.365742829029</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C5" t="n">
-        <v>1059.365742829029</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>701.1000442222783</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>315.311791624034</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331018</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872921</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130042</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868962</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y5" t="n">
-        <v>1445.96558289315</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500114</v>
@@ -4652,19 +4652,19 @@
         <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>801.944955774447</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330612</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.1026499885493</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606424</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
         <v>346.0498276483066</v>
@@ -4713,19 +4713,19 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4770,7 +4770,7 @@
         <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.751114818789</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1767.878520285689</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1767.878520285689</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="D8" t="n">
-        <v>1409.612821678938</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="E8" t="n">
-        <v>1023.824569080694</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>612.8386642910866</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4804,16 +4804,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4843,7 +4843,7 @@
         <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
         <v>2158.017852261501</v>
@@ -4874,13 +4874,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168638</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362712</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.25260147478</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612122999</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591805</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5105,40 +5105,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527389</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803934</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516138</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793923</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171317</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408901</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408901</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408901</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429798</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831766</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625879</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.896109690901</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473713</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551871</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611459</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004709</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616857</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.25260147478</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612122999</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852884</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591805</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615993</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5345,37 +5345,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527389</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803934</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516138</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167372</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793923</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.45752234853</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.853600740073</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121663</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121663</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121663</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121663</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270463</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138426</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703127</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5609,13 +5609,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400744</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429798</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429798</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429798</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429798</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578599</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5676,49 +5676,49 @@
         <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138439</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.502065570314</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,28 +5740,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5779,13 +5779,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188003</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908935</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908935</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908935</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908935</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057736</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179775</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.72455551139</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166295</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189236</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533434</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327547</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290587</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925698</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490398</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400749</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121681</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121681</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121681</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121681</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270482</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179775</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854709</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611862</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138444</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703145</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068011</v>
@@ -6721,13 +6721,13 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6837,67 +6837,67 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
         <v>974.1018203925706</v>
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,40 +6949,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,19 +7162,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7183,43 +7183,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
         <v>95.5840502527391</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7341,7 +7341,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7350,34 +7350,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>929.7309773356195</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,28 +7399,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7429,31 +7429,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7578,7 +7578,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7587,13 +7587,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487568</v>
@@ -7611,10 +7611,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7627,25 +7627,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
@@ -7669,28 +7669,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>30.36925650589448</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515143</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8300,13 +8300,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.9556134883061986</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154988</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51053793614851</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>186.1428431935221</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392193995</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856543</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.494940240504</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856538</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392193798</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392193819</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856538</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>57.2291039219418</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>57.22910392194137</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>165.5113759375334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>634077.8302699272</v>
+        <v>634077.8302699273</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>634077.8302699273</v>
+        <v>634077.8302699272</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>634077.8302699272</v>
+        <v>634077.8302699273</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>634077.8302699273</v>
+        <v>634077.8302699272</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176769</v>
+        <v>800515.7256176767</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176756</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="F2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.934697756</v>
-      </c>
       <c r="G2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.9346977555</v>
-      </c>
       <c r="I2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="K2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="J2" t="n">
-        <v>786967.9346977555</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="L2" t="n">
-        <v>786967.9346977555</v>
-      </c>
       <c r="M2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="N2" t="n">
-        <v>786967.934697756</v>
-      </c>
       <c r="O2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
     </row>
     <row r="3">
@@ -26371,37 +26371,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073545</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.796190857334296e-10</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>7.568791386739607e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819083</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551161</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
-        <v>3.569199054317292e-11</v>
+        <v>3.139184627798386e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,40 +26423,40 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756821</v>
+        <v>9337.200356756468</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756832</v>
+        <v>9337.200356756628</v>
       </c>
       <c r="G4" t="n">
+        <v>9337.200356756588</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9337.200356756628</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="M4" t="n">
         <v>9337.200356756644</v>
       </c>
-      <c r="H4" t="n">
-        <v>9337.200356756644</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.200356756639</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9337.20035675647</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.200356756546</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.200356756592</v>
-      </c>
       <c r="N4" t="n">
-        <v>9337.200356756472</v>
+        <v>9337.200356756533</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756548</v>
       </c>
       <c r="P4" t="n">
         <v>9337.20035675659</v>
@@ -26472,7 +26472,7 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26505,10 +26505,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-543900.1040901907</v>
+        <v>-543900.1040901905</v>
       </c>
       <c r="C6" t="n">
-        <v>570851.6794857297</v>
+        <v>570851.6794857295</v>
       </c>
       <c r="D6" t="n">
-        <v>411430.4094878368</v>
+        <v>411430.4094878366</v>
       </c>
       <c r="E6" t="n">
-        <v>350748.3634553805</v>
+        <v>351061.0047843008</v>
       </c>
       <c r="F6" t="n">
-        <v>676160.8252627351</v>
+        <v>676473.4665916568</v>
       </c>
       <c r="G6" t="n">
-        <v>676160.825262734</v>
+        <v>676473.466591656</v>
       </c>
       <c r="H6" t="n">
-        <v>676160.8252627347</v>
+        <v>676473.4665916563</v>
       </c>
       <c r="I6" t="n">
-        <v>676160.8252627349</v>
+        <v>676473.4665916566</v>
       </c>
       <c r="J6" t="n">
-        <v>508555.6474527524</v>
+        <v>508868.2887816739</v>
       </c>
       <c r="K6" t="n">
-        <v>676160.8252627351</v>
+        <v>676473.4665916564</v>
       </c>
       <c r="L6" t="n">
-        <v>627866.8552545442</v>
+        <v>628179.4965834657</v>
       </c>
       <c r="M6" t="n">
-        <v>591105.7973272232</v>
+        <v>591418.4386561445</v>
       </c>
       <c r="N6" t="n">
-        <v>676160.8252627354</v>
+        <v>676473.4665916559</v>
       </c>
       <c r="O6" t="n">
-        <v>676160.8252627351</v>
+        <v>676473.4665916564</v>
       </c>
       <c r="P6" t="n">
-        <v>676160.8252627354</v>
+        <v>676473.466591657</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,25 +26813,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>9.460989233424509e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483748</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27017,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>9.460989233424509e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27263,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>328.034439705026</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>247.5786016928004</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>23.46531394452217</v>
+        <v>71.75232694806485</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>156.9993935091948</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>173.0313165627905</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>201.1568951983997</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>234.2939374761827</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>206.2431374333857</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28092,22 +28092,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>-2.508117851338566e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,10 +28140,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28152,13 +28152,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.603688299445664e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28341,10 +28341,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.979039320256561e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,13 +28377,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.448110596952731e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-2.647175278980285e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-2.552565386646039e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-9.460989233424509e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862117</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>320.9147064709978</v>
+        <v>602.4605829984174</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214695</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121569</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422583</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862117</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558032</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,43 +32147,43 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>163.1438255932938</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>400.5469039565762</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>245.8118639189577</v>
+        <v>281.0363767960755</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043748</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33927,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,7 +34000,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34067,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34164,7 +34164,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,37 +34207,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34304,7 +34304,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>93.34947739681193</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
@@ -34795,13 +34795,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750467</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>508.7132618620056</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>392.1527130811802</v>
       </c>
       <c r="O6" t="n">
         <v>335.4246819961231</v>
@@ -35035,7 +35035,7 @@
         <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774858</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641933</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>189.5729943876645</v>
+        <v>471.1188709150841</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071393</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625073</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789202</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,19 +35570,19 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774858</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678993</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641933</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113588</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,7 +35813,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>257.9506595121318</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295356</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295356</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>103.6778299969394</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37712,7 +37712,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>477.985332142731</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37949,7 +37949,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
